--- a/data/trans_bre/P45C_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; -0,05</t>
+          <t>-4,81; -0,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 0,69</t>
+          <t>-4,23; 0,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,06</t>
+          <t>-2,58; 2,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,08; -0,33</t>
+          <t>-45,07; -1,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,73; 7,18</t>
+          <t>-32,93; 7,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,91; 39,75</t>
+          <t>-31,95; 44,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,36; -1,13</t>
+          <t>-6,47; -1,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,41; -1,14</t>
+          <t>-6,1; -1,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,91</t>
+          <t>-1,82; 2,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,62; -6,6</t>
+          <t>-31,73; -6,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,7; -6,05</t>
+          <t>-29,35; -5,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 20,2</t>
+          <t>-10,95; 18,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 5,32</t>
+          <t>-4,58; 5,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,36; -1,32</t>
+          <t>-12,25; -1,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 6,58</t>
+          <t>-3,23; 6,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 32,96</t>
+          <t>-22,15; 35,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,79; -6,65</t>
+          <t>-49,14; -8,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 47,63</t>
+          <t>-18,02; 47,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,1; -1,55</t>
+          <t>-5,09; -1,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,94; -2,54</t>
+          <t>-6,01; -2,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,61</t>
+          <t>-1,6; 1,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,12; -10,57</t>
+          <t>-29,96; -10,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,9; -14,94</t>
+          <t>-32,17; -14,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 12,48</t>
+          <t>-11,2; 13,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P45C_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; -0,08</t>
+          <t>-4,6; -0,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 0,64</t>
+          <t>-4,67; 0,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,14</t>
+          <t>-2,78; 2,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -3,06</t>
+          <t>-10,23; -2,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-45,07; -1,16</t>
+          <t>-43,52; -0,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,93; 7,05</t>
+          <t>-34,32; 7,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 44,36</t>
+          <t>-34,07; 39,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-55,07; -21,92</t>
+          <t>-54,67; -20,41</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,47; -1,25</t>
+          <t>-6,27; -1,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,1; -1,07</t>
+          <t>-6,13; -1,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,73</t>
+          <t>-1,74; 2,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,19; -0,94</t>
+          <t>-7,04; -0,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,73; -6,82</t>
+          <t>-30,73; -5,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,35; -5,76</t>
+          <t>-29,19; -5,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 18,77</t>
+          <t>-10,5; 19,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,88; -5,91</t>
+          <t>-35,77; -5,82</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 5,61</t>
+          <t>-4,37; 5,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,25; -1,86</t>
+          <t>-12,17; -1,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 6,51</t>
+          <t>-2,84; 6,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 3,74</t>
+          <t>-4,21; 3,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 35,67</t>
+          <t>-21,25; 34,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,14; -8,54</t>
+          <t>-48,06; -8,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 47,43</t>
+          <t>-15,03; 43,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 32,4</t>
+          <t>-25,29; 32,65</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -1,54</t>
+          <t>-5,0; -1,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,01; -2,47</t>
+          <t>-5,88; -2,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,68</t>
+          <t>-1,68; 1,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,97; -1,75</t>
+          <t>-6,02; -1,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,96; -10,14</t>
+          <t>-30,11; -11,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,17; -14,52</t>
+          <t>-31,7; -14,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 13,24</t>
+          <t>-11,93; 14,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,99; -11,64</t>
+          <t>-32,56; -11,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-40,91%</t>
+          <t>-38,83%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,23; -2,72</t>
+          <t>-9,58; -2,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-54,67; -20,41</t>
+          <t>-52,64; -17,3</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-20,79%</t>
+          <t>-18,71%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -0,97</t>
+          <t>-6,9; 2,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,77; -5,82</t>
+          <t>-39,33; 14,6</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>-1,68%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 3,67</t>
+          <t>-4,13; 3,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 32,65</t>
+          <t>-25,48; 34,43</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-22,37%</t>
+          <t>-20,2%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,02; -1,81</t>
+          <t>-5,79; 0,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,56; -11,42</t>
+          <t>-34,33; 1,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,6; -0,08</t>
+          <t>-4,57; -0,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,72</t>
+          <t>-4,77; 0,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,01</t>
+          <t>-2,57; 2,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -2,23</t>
+          <t>-9,29; -2,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,52; -0,48</t>
+          <t>-44,13; -2,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 7,74</t>
+          <t>-36,3; 8,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 39,57</t>
+          <t>-33,22; 42,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,64; -17,3</t>
+          <t>-53,18; -20,21</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,27; -1,01</t>
+          <t>-6,44; -1,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,13; -1,07</t>
+          <t>-6,23; -1,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 2,84</t>
+          <t>-1,88; 2,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 2,2</t>
+          <t>-7,04; 1,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,73; -5,36</t>
+          <t>-31,17; -5,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,19; -5,58</t>
+          <t>-29,97; -6,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 19,92</t>
+          <t>-11,34; 19,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,33; 14,6</t>
+          <t>-39,87; 11,36</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 5,41</t>
+          <t>-4,24; 5,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,17; -1,81</t>
+          <t>-12,04; -1,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 6,26</t>
+          <t>-2,74; 7,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,84</t>
+          <t>-4,06; 3,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 34,11</t>
+          <t>-20,91; 32,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,06; -8,16</t>
+          <t>-48,45; -9,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 43,83</t>
+          <t>-15,2; 52,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 34,43</t>
+          <t>-24,7; 32,02</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,0; -1,67</t>
+          <t>-5,02; -1,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,88; -2,42</t>
+          <t>-5,93; -2,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,85</t>
+          <t>-1,74; 1,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 0,77</t>
+          <t>-5,8; 0,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,11; -11,46</t>
+          <t>-30,3; -10,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,7; -14,19</t>
+          <t>-31,79; -14,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 14,48</t>
+          <t>-11,93; 13,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,33; 1,91</t>
+          <t>-34,56; 1,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Estudios-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
